--- a/src/examplepackage/outputdata/unique_matrix2elements.xlsx
+++ b/src/examplepackage/outputdata/unique_matrix2elements.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
   <si>
     <t>Soil and Construction</t>
   </si>
   <si>
-    <t>Coal burning</t>
-  </si>
-  <si>
-    <t>Industrial emission</t>
-  </si>
-  <si>
-    <t>Car exhaust</t>
+    <t>Coal Burning</t>
+  </si>
+  <si>
+    <t>Industrial Emission</t>
+  </si>
+  <si>
+    <t>Vehicle Emission</t>
   </si>
   <si>
     <t>Biomass</t>
@@ -34,346 +34,427 @@
     <t>index</t>
   </si>
   <si>
-    <t>85Rb+51V</t>
+    <t>48Ti+51V</t>
+  </si>
+  <si>
+    <t>85Rb+89Y</t>
   </si>
   <si>
     <t>89Y+90Zr</t>
   </si>
   <si>
-    <t>48Ti+51V</t>
+    <t>51V+54Fe</t>
+  </si>
+  <si>
+    <t>51V+85Rb</t>
   </si>
   <si>
     <t>54Fe+89Y</t>
   </si>
   <si>
+    <t>48Ti+89Y</t>
+  </si>
+  <si>
+    <t>88Sr+89Y</t>
+  </si>
+  <si>
     <t>55Mn+89Y</t>
   </si>
   <si>
-    <t>54Fe+51V</t>
-  </si>
-  <si>
-    <t>48Ti+89Y</t>
+    <t>64Zn+90Zr</t>
+  </si>
+  <si>
+    <t>63Cu+88Sr</t>
+  </si>
+  <si>
+    <t>53Cr+88Sr</t>
+  </si>
+  <si>
+    <t>53Cr+60Ni</t>
+  </si>
+  <si>
+    <t>60Ni+63Cu</t>
+  </si>
+  <si>
+    <t>55Mn+59Co</t>
+  </si>
+  <si>
+    <t>89Y+140Ce</t>
+  </si>
+  <si>
+    <t>85Rb+90Zr</t>
+  </si>
+  <si>
+    <t>53Cr+63Cu</t>
+  </si>
+  <si>
+    <t>89Y+139La</t>
+  </si>
+  <si>
+    <t>54Fe+59Co</t>
+  </si>
+  <si>
+    <t>48Ti+238U</t>
+  </si>
+  <si>
+    <t>51V+138Ba</t>
+  </si>
+  <si>
+    <t>90Zr+238U</t>
+  </si>
+  <si>
+    <t>59Co+64Zn</t>
+  </si>
+  <si>
+    <t>48Ti+63Cu</t>
+  </si>
+  <si>
+    <t>48Ti+60Ni</t>
+  </si>
+  <si>
+    <t>55Mn+60Ni</t>
+  </si>
+  <si>
+    <t>55Mn+78Se</t>
+  </si>
+  <si>
+    <t>59Co+60Ni</t>
+  </si>
+  <si>
+    <t>53Cr+55Mn</t>
+  </si>
+  <si>
+    <t>54Fe+60Ni</t>
+  </si>
+  <si>
+    <t>53Cr+69Ga</t>
+  </si>
+  <si>
+    <t>51V+208Pb</t>
+  </si>
+  <si>
+    <t>53Cr+54Fe</t>
+  </si>
+  <si>
+    <t>60Ni+64Zn</t>
+  </si>
+  <si>
+    <t>48Ti+53Cr</t>
+  </si>
+  <si>
+    <t>85Rb+88Sr</t>
+  </si>
+  <si>
+    <t>89Y+208Pb</t>
+  </si>
+  <si>
+    <t>55Mn+63Cu</t>
+  </si>
+  <si>
+    <t>63Cu+64Zn</t>
+  </si>
+  <si>
+    <t>55Mn+64Zn</t>
+  </si>
+  <si>
+    <t>54Fe+78Se</t>
+  </si>
+  <si>
+    <t>54Fe+69Ga</t>
+  </si>
+  <si>
+    <t>54Fe+63Cu</t>
+  </si>
+  <si>
+    <t>54Fe+93Nb</t>
+  </si>
+  <si>
+    <t>55Mn+72Ge</t>
+  </si>
+  <si>
+    <t>48Ti+72Ge</t>
+  </si>
+  <si>
+    <t>55Mn+88Sr</t>
+  </si>
+  <si>
+    <t>48Ti+90Zr</t>
+  </si>
+  <si>
+    <t>48Ti+64Zn</t>
+  </si>
+  <si>
+    <t>48Ti+85Rb</t>
+  </si>
+  <si>
+    <t>55Mn+85Rb</t>
+  </si>
+  <si>
+    <t>54Fe+85Rb</t>
+  </si>
+  <si>
+    <t>55Mn+54Fe</t>
+  </si>
+  <si>
+    <t>48Ti+88Sr</t>
   </si>
   <si>
     <t>54Fe+88Sr</t>
   </si>
   <si>
-    <t>54Fe+60Ni</t>
-  </si>
-  <si>
     <t>48Ti+55Mn</t>
   </si>
   <si>
-    <t>48Ti+60Ni</t>
-  </si>
-  <si>
-    <t>55Mn+88Sr</t>
-  </si>
-  <si>
-    <t>48Ti+85Rb</t>
-  </si>
-  <si>
-    <t>85Rb+88Sr</t>
-  </si>
-  <si>
-    <t>63Cu+64Zn</t>
-  </si>
-  <si>
-    <t>63Cu+88Sr</t>
-  </si>
-  <si>
-    <t>54Fe+63Cu</t>
-  </si>
-  <si>
-    <t>53Cr+60Ni</t>
-  </si>
-  <si>
-    <t>48Ti+88Sr</t>
-  </si>
-  <si>
-    <t>54Fe+69Ga</t>
-  </si>
-  <si>
-    <t>138Ba+51V</t>
+    <t>54Fe+64Zn</t>
   </si>
   <si>
     <t>48Ti+93Nb</t>
   </si>
   <si>
-    <t>53Cr+54Fe</t>
-  </si>
-  <si>
-    <t>48Ti+53Cr</t>
+    <t>55Mn+90Zr</t>
   </si>
   <si>
     <t>88Sr+90Zr</t>
   </si>
   <si>
-    <t>54Fe+93Nb</t>
-  </si>
-  <si>
     <t>54Fe+90Zr</t>
   </si>
   <si>
-    <t>53Cr+55Mn</t>
-  </si>
-  <si>
-    <t>55Mn+60Ni</t>
-  </si>
-  <si>
     <t>48Ti+54Fe</t>
   </si>
   <si>
-    <t>54Fe+64Zn</t>
-  </si>
-  <si>
-    <t>55Mn+90Zr</t>
-  </si>
-  <si>
-    <t>48Ti+64Zn</t>
-  </si>
-  <si>
-    <t>64Zn+88Sr</t>
-  </si>
-  <si>
-    <t>90Zr+238U</t>
-  </si>
-  <si>
-    <t>55Mn+85Rb</t>
-  </si>
-  <si>
-    <t>48Ti+63Cu</t>
-  </si>
-  <si>
-    <t>208Pb+51V</t>
-  </si>
-  <si>
-    <t>59Co+60Ni</t>
-  </si>
-  <si>
-    <t>89Y+140Ce</t>
-  </si>
-  <si>
-    <t>59Co+64Zn</t>
-  </si>
-  <si>
-    <t>48Ti+90Zr</t>
-  </si>
-  <si>
-    <t>55Mn+63Cu</t>
-  </si>
-  <si>
-    <t>55Mn+54Fe</t>
-  </si>
-  <si>
-    <t>54Fe+85Rb</t>
-  </si>
-  <si>
-    <t>54Fe+59Co</t>
-  </si>
-  <si>
-    <t>48Ti+72Ge</t>
-  </si>
-  <si>
-    <t>60Ni+63Cu</t>
-  </si>
-  <si>
-    <t>55Mn+59Co</t>
-  </si>
-  <si>
-    <t>53Cr+63Cu</t>
-  </si>
-  <si>
-    <t>55Mn+64Zn</t>
+    <t>64Zn+120Sn</t>
+  </si>
+  <si>
+    <t>85Rb+133Cs</t>
+  </si>
+  <si>
+    <t>55Mn+197Au</t>
+  </si>
+  <si>
+    <t>55Mn+208Pb</t>
+  </si>
+  <si>
+    <t>64Zn+202Hg</t>
+  </si>
+  <si>
+    <t>54Fe+140Ce</t>
+  </si>
+  <si>
+    <t>63Cu+208Pb</t>
+  </si>
+  <si>
+    <t>90Zr+107Ag</t>
+  </si>
+  <si>
+    <t>85Rb+208Pb</t>
+  </si>
+  <si>
+    <t>63Cu+133Cs</t>
   </si>
   <si>
     <t>55Mn+120Sn</t>
   </si>
   <si>
+    <t>60Ni+208Pb</t>
+  </si>
+  <si>
+    <t>88Sr+120Sn</t>
+  </si>
+  <si>
+    <t>88Sr+139La</t>
+  </si>
+  <si>
     <t>48Ti+138Ba</t>
   </si>
   <si>
+    <t>63Cu+138Ba</t>
+  </si>
+  <si>
+    <t>63Cu+140Ce</t>
+  </si>
+  <si>
+    <t>48Ti+139La</t>
+  </si>
+  <si>
+    <t>54Fe+138Ba</t>
+  </si>
+  <si>
+    <t>53Cr+208Pb</t>
+  </si>
+  <si>
+    <t>90Zr+180Hf</t>
+  </si>
+  <si>
+    <t>55Mn+138Ba</t>
+  </si>
+  <si>
+    <t>90Zr+140Ce</t>
+  </si>
+  <si>
+    <t>64Zn+138Ba</t>
+  </si>
+  <si>
+    <t>63Cu+139La</t>
+  </si>
+  <si>
+    <t>54Fe+107Ag</t>
+  </si>
+  <si>
+    <t>48Ti+120Sn</t>
+  </si>
+  <si>
+    <t>90Zr+138Ba</t>
+  </si>
+  <si>
+    <t>54Fe+120Sn</t>
+  </si>
+  <si>
+    <t>90Zr+139La</t>
+  </si>
+  <si>
+    <t>85Rb+138Ba</t>
+  </si>
+  <si>
+    <t>64Zn+208Pb</t>
+  </si>
+  <si>
+    <t>69Ga+138Ba</t>
+  </si>
+  <si>
+    <t>63Cu+120Sn</t>
+  </si>
+  <si>
+    <t>48Ti+197Au</t>
+  </si>
+  <si>
+    <t>48Ti+208Pb</t>
+  </si>
+  <si>
+    <t>88Sr+208Pb</t>
+  </si>
+  <si>
+    <t>53Cr+138Ba</t>
+  </si>
+  <si>
+    <t>48Ti+121Sb</t>
+  </si>
+  <si>
+    <t>69Ga+208Pb</t>
+  </si>
+  <si>
+    <t>54Fe+192Os</t>
+  </si>
+  <si>
+    <t>55Mn+140Ce</t>
+  </si>
+  <si>
+    <t>48Ti+140Ce</t>
+  </si>
+  <si>
     <t>54Fe+208Pb</t>
   </si>
   <si>
-    <t>48Ti+120Sn</t>
-  </si>
-  <si>
-    <t>69Ga+208Pb</t>
-  </si>
-  <si>
-    <t>53Cr+208Pb</t>
-  </si>
-  <si>
-    <t>69Ga+138Ba</t>
-  </si>
-  <si>
-    <t>88Sr+120Sn</t>
-  </si>
-  <si>
-    <t>54Fe+138Ba</t>
-  </si>
-  <si>
-    <t>60Ni+208Pb</t>
+    <t>48Ti+133Cs</t>
+  </si>
+  <si>
+    <t>64Zn+107Ag</t>
+  </si>
+  <si>
+    <t>55Mn+121Sb</t>
+  </si>
+  <si>
+    <t>54Fe+139La</t>
+  </si>
+  <si>
+    <t>55Mn+107Ag</t>
   </si>
   <si>
     <t>48Ti+107Ag</t>
   </si>
   <si>
-    <t>90Zr+107Ag</t>
-  </si>
-  <si>
-    <t>64Zn+138Ba</t>
-  </si>
-  <si>
-    <t>55Mn+121Sb</t>
-  </si>
-  <si>
-    <t>54Fe+107Ag</t>
-  </si>
-  <si>
-    <t>54Fe+139La</t>
+    <t>75As+208Pb</t>
+  </si>
+  <si>
+    <t>55Mn+139La</t>
+  </si>
+  <si>
+    <t>88Sr+140Ce</t>
+  </si>
+  <si>
+    <t>90Zr+121Sb</t>
   </si>
   <si>
     <t>88Sr+138Ba</t>
   </si>
   <si>
-    <t>48Ti+208Pb</t>
+    <t>90Zr+208Pb</t>
+  </si>
+  <si>
+    <t>63Cu+158Gd</t>
   </si>
   <si>
     <t>64Zn+121Sb</t>
   </si>
   <si>
-    <t>54Fe+140Ce</t>
-  </si>
-  <si>
-    <t>90Zr+138Ba</t>
-  </si>
-  <si>
-    <t>63Cu+208Pb</t>
-  </si>
-  <si>
-    <t>48Ti+202Hg</t>
-  </si>
-  <si>
-    <t>55Mn+138Ba</t>
-  </si>
-  <si>
-    <t>63Cu+133Cs</t>
-  </si>
-  <si>
-    <t>64Zn+208Pb</t>
-  </si>
-  <si>
-    <t>88Sr+139La</t>
-  </si>
-  <si>
-    <t>90Zr+180Hf</t>
-  </si>
-  <si>
-    <t>63Cu+139La</t>
-  </si>
-  <si>
-    <t>54Fe+120Sn</t>
-  </si>
-  <si>
-    <t>63Cu+158Gd</t>
-  </si>
-  <si>
-    <t>90Zr+140Ce</t>
-  </si>
-  <si>
-    <t>75As+208Pb</t>
-  </si>
-  <si>
-    <t>48Ti+133Cs</t>
-  </si>
-  <si>
-    <t>90Zr+208Pb</t>
-  </si>
-  <si>
-    <t>48Ti+139La</t>
-  </si>
-  <si>
-    <t>63Cu+140Ce</t>
-  </si>
-  <si>
-    <t>85Rb+138Ba</t>
-  </si>
-  <si>
-    <t>55Mn+140Ce</t>
-  </si>
-  <si>
-    <t>55Mn+208Pb</t>
-  </si>
-  <si>
-    <t>48Ti+140Ce</t>
-  </si>
-  <si>
-    <t>64Zn+202Hg</t>
-  </si>
-  <si>
-    <t>63Cu+138Ba</t>
-  </si>
-  <si>
-    <t>85Rb+208Pb</t>
-  </si>
-  <si>
-    <t>90Zr+121Sb</t>
-  </si>
-  <si>
-    <t>55Mn+107Ag</t>
-  </si>
-  <si>
-    <t>64Zn+120Sn</t>
-  </si>
-  <si>
-    <t>48Ti+197Au</t>
-  </si>
-  <si>
-    <t>48Ti+121Sb</t>
-  </si>
-  <si>
-    <t>63Cu+120Sn</t>
+    <t>55Mn+133Cs</t>
+  </si>
+  <si>
+    <t>78Se+138Ba</t>
+  </si>
+  <si>
+    <t>63Cu+107Ag</t>
+  </si>
+  <si>
+    <t>138Ba+208Pb</t>
+  </si>
+  <si>
+    <t>114Cd+120Sn</t>
+  </si>
+  <si>
+    <t>139La+140Ce</t>
+  </si>
+  <si>
+    <t>140Ce+208Pb</t>
+  </si>
+  <si>
+    <t>139La+169Tm</t>
+  </si>
+  <si>
+    <t>107Ag+208Pb</t>
+  </si>
+  <si>
+    <t>120Sn+121Sb</t>
+  </si>
+  <si>
+    <t>108Pd+197Au</t>
+  </si>
+  <si>
+    <t>153Eu+208Pb</t>
+  </si>
+  <si>
+    <t>197Au+208Pb</t>
+  </si>
+  <si>
+    <t>120Sn+208Pb</t>
   </si>
   <si>
     <t>120Sn+138Ba</t>
   </si>
   <si>
-    <t>140Ce+208Pb</t>
-  </si>
-  <si>
     <t>175Lu+208Pb</t>
   </si>
   <si>
+    <t>108Pd+208Pb</t>
+  </si>
+  <si>
+    <t>138Ba+140Ce</t>
+  </si>
+  <si>
     <t>121Sb+208Pb</t>
   </si>
   <si>
-    <t>139La+140Ce</t>
-  </si>
-  <si>
-    <t>120Sn+121Sb</t>
-  </si>
-  <si>
-    <t>138Ba+140Ce</t>
-  </si>
-  <si>
     <t>133Cs+208Pb</t>
-  </si>
-  <si>
-    <t>138Ba+208Pb</t>
-  </si>
-  <si>
-    <t>120Sn+208Pb</t>
-  </si>
-  <si>
-    <t>108Pd+208Pb</t>
-  </si>
-  <si>
-    <t>197Au+208Pb</t>
-  </si>
-  <si>
-    <t>107Ag+208Pb</t>
   </si>
 </sst>
 </file>
@@ -731,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,6 +846,15 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -776,15 +866,6 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -796,7 +877,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -806,11 +899,23 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -829,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -837,10 +942,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -851,26 +956,23 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -879,44 +981,29 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -927,119 +1014,107 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1050,60 +1125,63 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
@@ -1111,29 +1189,32 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1144,27 +1225,24 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
@@ -1172,81 +1250,69 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33">
+        <v>37</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="E36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
@@ -1254,21 +1320,18 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
+        <v>42</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1279,136 +1342,157 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43">
+        <v>47</v>
+      </c>
+      <c r="B43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47">
+        <v>51</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48">
-        <v>39</v>
-      </c>
-      <c r="C48">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>4</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>22</v>
-      </c>
-      <c r="F48">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
         <v>0</v>
@@ -1416,13 +1500,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
       </c>
       <c r="G50" t="s">
         <v>0</v>
@@ -1430,59 +1523,38 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
       <c r="G51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>31</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>165</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>0</v>
@@ -1490,10 +1562,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -1507,13 +1579,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>407</v>
+      </c>
+      <c r="E55">
+        <v>87</v>
+      </c>
+      <c r="F55">
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>2</v>
@@ -1521,32 +1602,59 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
       </c>
       <c r="G58" t="s">
         <v>0</v>
@@ -1554,36 +1662,42 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="G60" t="s">
         <v>0</v>
@@ -1591,52 +1705,70 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62">
-        <v>16</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>65</v>
+      </c>
+      <c r="E64">
+        <v>41</v>
+      </c>
+      <c r="F64">
+        <v>81</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
@@ -1644,16 +1776,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>51</v>
-      </c>
-      <c r="D65">
-        <v>36</v>
-      </c>
-      <c r="E65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
         <v>1</v>
@@ -1661,21 +1787,18 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="E66">
+        <v>70</v>
+      </c>
+      <c r="B66">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1686,9 +1809,21 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
       </c>
       <c r="C68">
+        <v>89</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>31</v>
+      </c>
+      <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
@@ -1697,90 +1832,114 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69">
+        <v>73</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
         <v>4</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
       <c r="G70" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>27</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E71">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74">
+        <v>78</v>
+      </c>
+      <c r="C74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
       <c r="G75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
         <v>1</v>
@@ -1788,23 +1947,23 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
       <c r="G77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="E78">
         <v>1</v>
       </c>
       <c r="G78" t="s">
@@ -1813,13 +1972,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
         <v>0</v>
@@ -1827,111 +1995,132 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83">
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>29</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="s">
         <v>2</v>
@@ -1939,87 +2128,99 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
         <v>4</v>
-      </c>
-      <c r="G89" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="E91">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="E94">
         <v>1</v>
       </c>
       <c r="G94" t="s">
@@ -2028,36 +2229,30 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5</v>
-      </c>
-      <c r="F95">
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C96">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G96" t="s">
         <v>1</v>
@@ -2065,20 +2260,32 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="E98">
         <v>1</v>
       </c>
       <c r="G98" t="s">
@@ -2087,10 +2294,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
         <v>2</v>
@@ -2098,9 +2305,21 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" t="s">
@@ -2109,85 +2328,103 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="E101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
       <c r="G103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F105">
+        <v>109</v>
+      </c>
+      <c r="D105">
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B106">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D106">
-        <v>17</v>
-      </c>
-      <c r="F106">
         <v>4</v>
       </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
       <c r="G106" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>7</v>
       </c>
       <c r="G107" t="s">
         <v>0</v>
@@ -2195,137 +2432,122 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>117</v>
+      </c>
+      <c r="D108">
+        <v>68</v>
+      </c>
+      <c r="E108">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109">
-        <v>4</v>
-      </c>
-      <c r="C109">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="E111">
+        <v>115</v>
+      </c>
+      <c r="C111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C113">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>7</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114">
-        <v>14</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
       <c r="G115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -2336,48 +2558,66 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>6</v>
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="E120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
@@ -2386,7 +2626,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -2397,54 +2637,45 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D122">
+        <v>126</v>
+      </c>
+      <c r="C122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123">
+        <v>127</v>
+      </c>
+      <c r="D123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
       <c r="G124" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
@@ -2453,10 +2684,16 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
       </c>
       <c r="G126" t="s">
         <v>3</v>
@@ -2464,32 +2701,47 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127">
+        <v>131</v>
+      </c>
+      <c r="E127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>61</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>33</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G129" t="s">
         <v>1</v>
@@ -2497,44 +2749,35 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C130">
+        <v>134</v>
+      </c>
+      <c r="E130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B131">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>15</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
         <v>1</v>
@@ -2542,52 +2785,46 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134">
+        <v>138</v>
+      </c>
+      <c r="E134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>14</v>
+        <v>139</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C136">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" t="s">
         <v>1</v>
@@ -2595,32 +2832,35 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D138">
+        <v>142</v>
+      </c>
+      <c r="C138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" t="s">
         <v>1</v>
@@ -2628,12 +2868,49 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
       </c>
       <c r="G140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
         <v>1</v>
       </c>
     </row>
